--- a/Assets/Excels/C2/c2taskseed.xlsx
+++ b/Assets/Excels/C2/c2taskseed.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" firstSheet="7" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" firstSheet="10" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="4">
   <si>
     <t>col1</t>
     <phoneticPr fontId="1"/>
@@ -65,6 +65,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -104,11 +107,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -428,7 +434,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -451,86 +457,86 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
         <v>0</v>
       </c>
     </row>
@@ -546,7 +552,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -569,86 +575,86 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
         <v>1</v>
       </c>
     </row>
@@ -663,7 +669,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -686,87 +692,87 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -780,7 +786,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -803,87 +809,87 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -897,7 +903,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -920,86 +926,86 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1014,7 +1020,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -1037,86 +1043,86 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1131,7 +1137,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -1151,87 +1157,87 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1245,7 +1251,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -1268,86 +1274,86 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1361,7 +1367,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -1380,87 +1388,87 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1474,7 +1482,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -1497,87 +1505,87 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1591,7 +1599,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -1614,87 +1622,87 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1708,7 +1716,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -1728,86 +1736,86 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1821,8 +1829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -1845,86 +1853,86 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1940,7 +1948,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -1960,86 +1968,86 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2054,7 +2062,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -2074,86 +2082,86 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2168,7 +2176,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -2191,86 +2199,86 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2285,7 +2293,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -2308,86 +2316,86 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2399,10 +2407,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -2410,87 +2418,101 @@
     <col min="1" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2505,7 +2527,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -2528,86 +2550,86 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2622,7 +2644,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A2" sqref="A2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -2645,91 +2667,92 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Excels/C2/c2taskseed.xlsx
+++ b/Assets/Excels/C2/c2taskseed.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" firstSheet="10" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" firstSheet="9" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -552,7 +552,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -618,7 +618,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -886,10 +886,10 @@
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1137,7 +1137,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -1206,15 +1206,15 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1598,8 +1598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -1829,7 +1829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1948,7 +1948,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -2025,10 +2025,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -2039,10 +2039,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -2293,7 +2293,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -2331,10 +2331,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -2402,6 +2402,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2644,7 +2645,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -2677,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
